--- a/Tablolar/Öğrenci Not Tablosu.xlsx
+++ b/Tablolar/Öğrenci Not Tablosu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selencalik/Desktop/Yazilim Lab 1  Projesi/Tablolar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkecici/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9DB450-9D8A-564D-9191-188D5B584097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2EF4F4-CD13-6E44-90A0-ED0431785E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NotYukle" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -513,28 +513,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <f ca="1">INT(RAND()*100)</f>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:G17" ca="1" si="0">INT(RAND()*100)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">INT(RAND()*100)</f>
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -542,28 +536,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:G37" ca="1" si="1">INT(RAND()*100)</f>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -571,28 +559,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -600,28 +582,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -629,28 +605,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -658,28 +628,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -687,28 +651,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -716,28 +674,22 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -745,28 +697,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -774,28 +720,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -803,28 +743,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -832,28 +766,22 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -861,28 +789,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -890,27 +812,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -919,28 +835,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D16" s="1">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1">
         <v>64</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
       <c r="F16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -948,28 +858,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -977,28 +881,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1006,28 +904,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1035,28 +927,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1064,28 +950,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1093,28 +973,22 @@
         <v>12</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1122,28 +996,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1151,28 +1019,22 @@
         <v>10</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,28 +1042,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1209,28 +1065,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,28 +1088,22 @@
         <v>8</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E27" s="1">
+        <v>75</v>
+      </c>
+      <c r="F27" s="1">
         <v>35</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
       <c r="G27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1267,28 +1111,22 @@
         <v>12</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="1">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1">
         <v>31</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1296,28 +1134,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1325,28 +1157,22 @@
         <v>10</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1354,28 +1180,22 @@
         <v>13</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1383,28 +1203,22 @@
         <v>11</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1412,28 +1226,22 @@
         <v>8</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1441,28 +1249,22 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1470,28 +1272,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1499,28 +1295,22 @@
         <v>10</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1528,22 +1318,22 @@
         <v>13</v>
       </c>
       <c r="B37" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
